--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Udyan Sharma\Documents\GitHub\voice-coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003D1ECC-50D4-4875-997C-CC3D215AA18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A931437-A516-4733-9DF3-811DD29BB446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{F128D7EB-BB5D-4EB4-8DC8-F0425F257D7A}"/>
+    <workbookView xWindow="2100" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{F128D7EB-BB5D-4EB4-8DC8-F0425F257D7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Var_Declaration</t>
   </si>
   <si>
     <t>Declare a variable</t>
   </si>
+  <si>
+    <t>Declare variable</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FAC778-8645-4F21-94DB-2A6F68CA079A}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,7 +412,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -403,7 +421,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/variables.xlsx
+++ b/variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Udyan Sharma\Documents\GitHub\voice-coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udyan2\Documents\GitHub\voice-coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A931437-A516-4733-9DF3-811DD29BB446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF21A1F-3900-47C9-A78C-62B42387BF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{F128D7EB-BB5D-4EB4-8DC8-F0425F257D7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F128D7EB-BB5D-4EB4-8DC8-F0425F257D7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Var_Declaration</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>xyz</t>
+  </si>
+  <si>
+    <t>Initialize a variable</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FAC778-8645-4F21-94DB-2A6F68CA079A}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,6 +439,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
